--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BC/15/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BC/15/seed5/result_data_RandomForest.xlsx
@@ -589,7 +589,7 @@
         <v>3.8</v>
       </c>
       <c r="C11" t="n">
-        <v>-13.4239</v>
+        <v>-13.2051</v>
       </c>
       <c r="D11" t="n">
         <v>-8.220000000000001</v>
@@ -600,7 +600,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.935599999999997</v>
+        <v>5.001199999999997</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -757,7 +757,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-12.174</v>
+        <v>-11.9973</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -810,7 +810,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>5.930200000000001</v>
+        <v>6.212900000000003</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -827,7 +827,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-13.301</v>
+        <v>-13.3051</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -880,10 +880,10 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>6.716899999999998</v>
+        <v>6.605199999999996</v>
       </c>
       <c r="C32" t="n">
-        <v>-11.6207</v>
+        <v>-11.7413</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -911,7 +911,7 @@
         <v>6.92</v>
       </c>
       <c r="C34" t="n">
-        <v>-11.76300000000002</v>
+        <v>-11.74140000000001</v>
       </c>
       <c r="D34" t="n">
         <v>-7.27</v>
@@ -936,7 +936,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>9.351700000000008</v>
+        <v>9.197100000000008</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -964,7 +964,7 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>5.321599999999997</v>
+        <v>5.316999999999997</v>
       </c>
       <c r="C38" t="n">
         <v>-12.46</v>
@@ -1023,7 +1023,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-11.9092</v>
+        <v>-12.23730000000001</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1076,7 +1076,7 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>6.226400000000002</v>
+        <v>5.949100000000004</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
@@ -1121,7 +1121,7 @@
         <v>4.95</v>
       </c>
       <c r="C49" t="n">
-        <v>-13.89469999999999</v>
+        <v>-13.7572</v>
       </c>
       <c r="D49" t="n">
         <v>-9.210000000000001</v>
@@ -1188,10 +1188,10 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>5.136300000000005</v>
+        <v>5.932300000000002</v>
       </c>
       <c r="C54" t="n">
-        <v>-14.17079999999999</v>
+        <v>-12.661</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1202,7 +1202,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>5.692899999999996</v>
+        <v>5.250599999999996</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1216,7 +1216,7 @@
         <v>-21.95</v>
       </c>
       <c r="B56" t="n">
-        <v>4.528499999999997</v>
+        <v>4.599999999999994</v>
       </c>
       <c r="C56" t="n">
         <v>-13.63</v>
@@ -1370,7 +1370,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.458599999999995</v>
+        <v>5.207599999999997</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1398,7 +1398,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.457399999999995</v>
+        <v>5.269499999999997</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1440,7 +1440,7 @@
         <v>-21.62</v>
       </c>
       <c r="B72" t="n">
-        <v>5.045600000000007</v>
+        <v>5.079500000000003</v>
       </c>
       <c r="C72" t="n">
         <v>-11.2</v>
@@ -1527,7 +1527,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>-13.116</v>
+        <v>-12.9865</v>
       </c>
       <c r="D78" t="n">
         <v>-6.53</v>
@@ -1555,7 +1555,7 @@
         <v>11.21</v>
       </c>
       <c r="C80" t="n">
-        <v>-13.359</v>
+        <v>-13.5343</v>
       </c>
       <c r="D80" t="n">
         <v>-6.63</v>
@@ -1594,7 +1594,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.778900000000002</v>
+        <v>5.922899999999998</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1636,7 +1636,7 @@
         <v>-22.27</v>
       </c>
       <c r="B86" t="n">
-        <v>5.209400000000001</v>
+        <v>5.154900000000001</v>
       </c>
       <c r="C86" t="n">
         <v>-14.09</v>
@@ -1706,7 +1706,7 @@
         <v>-21.82</v>
       </c>
       <c r="B91" t="n">
-        <v>5.000599999999997</v>
+        <v>5.169499999999995</v>
       </c>
       <c r="C91" t="n">
         <v>-12.06</v>
@@ -1734,7 +1734,7 @@
         <v>-21.49</v>
       </c>
       <c r="B93" t="n">
-        <v>5.269800000000003</v>
+        <v>5.1879</v>
       </c>
       <c r="C93" t="n">
         <v>-10.09</v>
@@ -1793,7 +1793,7 @@
         <v>6.4</v>
       </c>
       <c r="C97" t="n">
-        <v>-11.7967</v>
+        <v>-11.7142</v>
       </c>
       <c r="D97" t="n">
         <v>-6.44</v>
@@ -1818,10 +1818,10 @@
         <v>-21.32</v>
       </c>
       <c r="B99" t="n">
-        <v>6.034999999999999</v>
+        <v>6.252799999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>-11.90850000000001</v>
+        <v>-11.87320000000001</v>
       </c>
       <c r="D99" t="n">
         <v>-7.59</v>
@@ -1849,7 +1849,7 @@
         <v>8.42</v>
       </c>
       <c r="C101" t="n">
-        <v>-12.7093</v>
+        <v>-12.7525</v>
       </c>
       <c r="D101" t="n">
         <v>-7.98</v>
@@ -1888,7 +1888,7 @@
         <v>-19.85</v>
       </c>
       <c r="B104" t="n">
-        <v>9.522200000000002</v>
+        <v>9.4803</v>
       </c>
       <c r="C104" t="n">
         <v>-11.07</v>
